--- a/V.xlsx
+++ b/V.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DD2ED-1CCA-4D87-9916-DF5FB46AE5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC5BE7-3972-4D1F-8EE9-FA167E05A168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{D7A11B22-4522-467B-9402-0B9402DE3F95}"/>
+    <workbookView xWindow="-27075" yWindow="2310" windowWidth="25965" windowHeight="16125" xr2:uid="{D7A11B22-4522-467B-9402-0B9402DE3F95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -790,12 +790,12 @@
   <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>68</v>
       </c>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -817,16 +817,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>667800</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>767440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -848,13 +848,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>669206</v>
+        <v>768846</v>
       </c>
     </row>
   </sheetData>
@@ -873,21 +873,21 @@
       <selection pane="bottomRight" activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="3"/>
-    <col min="10" max="14" width="9.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1796875" style="3"/>
+    <col min="10" max="14" width="9.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -921,7 +921,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>15917</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
@@ -1346,10 +1346,10 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>106492</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>186975</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>293467</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1475,7 +1475,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -1533,10 +1533,10 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>-3797</v>
       </c>
     </row>
-    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1731,7 +1731,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>9303</v>
       </c>
     </row>
-    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>6526</v>
       </c>
     </row>
-    <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>2.5683962264150941</v>
       </c>
     </row>
-    <row r="41" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0.10145934676858936</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>67</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>17</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0.97823343848580446</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0.68980021030494221</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>5.810338126700354E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>45</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>-1406</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>19203</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>30</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>31</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>32</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>34</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>37</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>91888</v>
       </c>
     </row>
-    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3021,7 +3021,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>39</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>31</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>40</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>41</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>20609</v>
       </c>
     </row>
-    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>26</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>43</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>38296</v>
       </c>
     </row>
-    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>91888</v>
       </c>
     </row>
-    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>48</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>49</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>54</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="80" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>36</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>51</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>-4168</v>
       </c>
     </row>
-    <row r="83" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>50</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="85" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>-345</v>
       </c>
     </row>
-    <row r="86" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>59</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>60</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>-906</v>
       </c>
     </row>
-    <row r="88" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>36</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>57</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="90" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4133,7 +4133,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>64</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>-4011</v>
       </c>
     </row>
-    <row r="92" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>65</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>-1170</v>
       </c>
     </row>
-    <row r="94" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>-108</v>
       </c>
     </row>
-    <row r="95" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>36</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>-186</v>
       </c>
     </row>
-    <row r="96" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>63</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>-5475</v>
       </c>
     </row>
-    <row r="97" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>62</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>-508</v>
       </c>
     </row>
-    <row r="98" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>61</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>91</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J101" s="2">
         <f t="shared" ref="J101:O101" si="36">SUM(G100:J100)</f>
         <v>19696</v>
@@ -4542,7 +4542,7 @@
         <v>20397</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
